--- a/equipamentos.xlsx
+++ b/equipamentos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -505,6 +505,25 @@
         </is>
       </c>
     </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/equipamentos.xlsx
+++ b/equipamentos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -505,7 +505,6 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -517,8 +516,129 @@
           <t>123</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>123</t>
         </is>
